--- a/MainTop/30.09.2024/Таня/15 дней Таня с 15.08.2024 по 30.08.2024/печать.xlsx
+++ b/MainTop/30.09.2024/Таня/15 дней Таня с 15.08.2024 по 30.08.2024/печать.xlsx
@@ -278,7 +278,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+      <selection pane="topLeft" activeCell="L21" activeCellId="0" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
